--- a/Linux Guide_v3.xlsx
+++ b/Linux Guide_v3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixofori/Library/CloudStorage/Box-Box/Personal/Notebooks/Technical Guides/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixofori/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54559A7A-AB70-3A41-A6BA-19511BB1648A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A01BCE-1E3E-6F46-868D-8A2DB628A52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19060" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="2008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="2013">
   <si>
     <t>Task</t>
   </si>
@@ -6999,6 +6999,23 @@
 Use the -oPort option to specify a port other than 22
 After a successful connection, the prompt will change to sftp&gt;
 If you specify a directory path, sftp will start in that directory</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>git</t>
+  </si>
+  <si>
+    <t>The git command is usd for version management and version control</t>
+  </si>
+  <si>
+    <t>When you want to version directories</t>
+  </si>
+  <si>
+    <t>$ git init
+$ git add .
+$ git commit -am "commit message"</t>
   </si>
 </sst>
 </file>
@@ -7402,11 +7419,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8524,12 +8541,29 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>1604</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>1974</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>2012</v>
       </c>
     </row>
   </sheetData>
